--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value158.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value158.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.100832615659904</v>
+        <v>2.822043180465698</v>
       </c>
       <c r="B1">
-        <v>1.759569013671427</v>
+        <v>4.178537845611572</v>
       </c>
       <c r="C1">
-        <v>2.118378413374295</v>
+        <v>3.191492080688477</v>
       </c>
       <c r="D1">
-        <v>2.327246217226328</v>
+        <v>2.948970317840576</v>
       </c>
       <c r="E1">
-        <v>1.652531510871137</v>
+        <v>2.646575689315796</v>
       </c>
     </row>
   </sheetData>
